--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1684.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1684.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.64923099607066</v>
+        <v>0.8848016262054443</v>
       </c>
       <c r="B1">
-        <v>2.995038553385525</v>
+        <v>2.648030519485474</v>
       </c>
       <c r="C1">
-        <v>2.059617503119602</v>
+        <v>2.445246696472168</v>
       </c>
       <c r="D1">
-        <v>1.834784413766664</v>
+        <v>1.836178064346313</v>
       </c>
       <c r="E1">
-        <v>1.758335623910106</v>
+        <v>1.345170259475708</v>
       </c>
     </row>
   </sheetData>
